--- a/results/mp/deberta/corona/confidence/210/stop-words-0.15/avg_0.004_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/210/stop-words-0.15/avg_0.004_scores.xlsx
@@ -88,10 +88,10 @@
     <t>fresh</t>
   </si>
   <si>
+    <t>support</t>
+  </si>
+  <si>
     <t>please</t>
-  </si>
-  <si>
-    <t>support</t>
   </si>
   <si>
     <t>well</t>
@@ -997,25 +997,25 @@
         <v>24</v>
       </c>
       <c r="K16">
-        <v>0.670995670995671</v>
+        <v>0.6601941747572816</v>
       </c>
       <c r="L16">
-        <v>155</v>
+        <v>68</v>
       </c>
       <c r="M16">
-        <v>163</v>
+        <v>71</v>
       </c>
       <c r="N16">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="O16">
-        <v>0.05000000000000004</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P16" t="b">
         <v>1</v>
       </c>
       <c r="Q16">
-        <v>76</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1023,25 +1023,25 @@
         <v>25</v>
       </c>
       <c r="K17">
-        <v>0.6601941747572816</v>
+        <v>0.6485355648535565</v>
       </c>
       <c r="L17">
-        <v>68</v>
+        <v>155</v>
       </c>
       <c r="M17">
-        <v>71</v>
+        <v>155</v>
       </c>
       <c r="N17">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O17">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>35</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1179,25 +1179,25 @@
         <v>31</v>
       </c>
       <c r="K23">
-        <v>0.551829268292683</v>
+        <v>0.5323529411764706</v>
       </c>
       <c r="L23">
         <v>181</v>
       </c>
       <c r="M23">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="N23">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O23">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>147</v>
+        <v>159</v>
       </c>
     </row>
     <row r="24" spans="10:17">
